--- a/python-in-excel/with-python/auto.xlsx
+++ b/python-in-excel/with-python/auto.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\adefusco-pyexcel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338040AA-6919-4C78-BC6B-EE023A005607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5AA18-362D-4AB7-AABE-3C7AEEBC2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13260" xr2:uid="{86423459-A73C-4EF5-96BD-FD49E29D17FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13260" activeTab="2" xr2:uid="{86423459-A73C-4EF5-96BD-FD49E29D17FE}"/>
   </bookViews>
   <sheets>
     <sheet name="autompg-csv" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'autompg-csv'!$A$1:$I$393</definedName>
@@ -62,7 +63,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -77,18 +78,48 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -109,6 +140,21 @@
   </pythonScript>
   <pythonScript>
     <code>df['make'].drop_duplicates().sort_values()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>df.plot.scatter(x='weight', y='hp')</code>
+  </pythonScript>
+  <pythonScript>
+    <code>df.groupby('origin')['mpg'].mean().plot.bar()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>import seaborn as sns
+import matplotlib.pyplot as plt
+sns.set(style='ticks', palette='bright')
+plot = sns.relplot(data=df, x='hp', y='mpg', hue='origin', size='weight')
+plot.set(title='MPG vs HP')
+sns.despine(plot.figure)
+plot</code>
   </pythonScript>
 </pythonScripts>
 </file>
@@ -1112,6 +1158,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325384</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE63DF3-7575-400E-020A-354474A7BC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="209550"/>
+          <a:ext cx="5221234" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219466</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA2E7D3-FDF0-66D6-DA75-A5956A0543F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!J1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="209550"/>
+          <a:ext cx="5020066" cy="3904496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>334909</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE7C76D-3DAF-155B-B2FB-21FF6780ECD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet2!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="485775"/>
+          <a:ext cx="5221234" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,7 +1503,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1323,11 +1526,26 @@
     <fb>0</fb>
     <v>2</v>
   </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -1344,6 +1562,11 @@
   </s>
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
@@ -1402,6 +1625,14 @@
     </rSty>
   </richStyles>
 </richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085BB104-53A3-441A-B404-B00F7FD6CEFF}">
   <dimension ref="A1:AA393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25153,13 +25384,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359ACF25-9CDC-436F-BA89-E3566A7E3403}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" ref="A1">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J1" t="e" cm="1" vm="4">
+        <f t="array" ref="J1">_xlfn._xlws.PY(4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78262B2E-EC61-4975-963E-8B8527C4BEC7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/python-in-excel/with-python/auto.xlsx
+++ b/python-in-excel/with-python/auto.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\adefusco-pyexcel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5AA18-362D-4AB7-AABE-3C7AEEBC2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98CD37-ADEF-429B-9528-B8C4AF51358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13260" activeTab="2" xr2:uid="{86423459-A73C-4EF5-96BD-FD49E29D17FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13260" activeTab="3" xr2:uid="{86423459-A73C-4EF5-96BD-FD49E29D17FE}"/>
   </bookViews>
   <sheets>
     <sheet name="autompg-csv" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'autompg-csv'!$A$1:$I$393</definedName>
@@ -63,7 +64,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="5">
+  <futureMetadata name="XLRICHVALUE" count="6">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -99,13 +100,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="5">
+  <valueMetadata count="6">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -120,6 +128,9 @@
     </bk>
     <bk>
       <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -146,6 +157,10 @@
   </pythonScript>
   <pythonScript>
     <code>df.groupby('origin')['mpg'].mean().plot.bar()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>import seaborn as sns
+sns.pairplot(data=df, hue='origin', vars=['mpg','weight','accel','displ'])</code>
   </pythonScript>
   <pythonScript>
     <code>import seaborn as sns
@@ -1264,6 +1279,60 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466364</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>35070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646AF88E-0CA3-C856-730E-134BB0E08BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet3!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067564" cy="8988570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1503,7 +1572,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1538,6 +1607,11 @@
   </rv>
   <rv s="4">
     <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>3</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1632,6 +1706,7 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -25386,7 +25461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359ACF25-9CDC-436F-BA89-E3566A7E3403}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -25409,6 +25484,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3195BB-A1D9-43CF-97E9-A87B362C1106}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78262B2E-EC61-4975-963E-8B8527C4BEC7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -25417,8 +25512,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e" cm="1" vm="5">
-        <f t="array" ref="A1">_xlfn._xlws.PY(5,0)</f>
+      <c r="A1" t="e" cm="1" vm="6">
+        <f t="array" ref="A1">_xlfn._xlws.PY(6,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
